--- a/evaluation/results/isolation_forest/augmented/noise_2/split_4/test_95_5/evaluation_metrics.xlsx
+++ b/evaluation/results/isolation_forest/augmented/noise_2/split_4/test_95_5/evaluation_metrics.xlsx
@@ -500,37 +500,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>0.9323843416370107</v>
+        <v>0.3398576512455516</v>
       </c>
       <c r="C2">
-        <v>0.3611111111111111</v>
+        <v>0.06582278481012659</v>
       </c>
       <c r="D2">
-        <v>0.4642857142857143</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="E2">
-        <v>0.40625</v>
+        <v>0.1229314420803782</v>
       </c>
       <c r="F2">
-        <v>0.4391891891891892</v>
+        <v>0.2564102564102564</v>
       </c>
       <c r="G2">
-        <v>0.4592391304347826</v>
+        <v>0.617351598173516</v>
       </c>
       <c r="H2">
-        <v>0.7106072766185126</v>
+        <v>0.7473582129481006</v>
       </c>
       <c r="I2">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="J2">
-        <v>23</v>
+        <v>369</v>
       </c>
       <c r="K2">
-        <v>511</v>
+        <v>165</v>
       </c>
       <c r="L2">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -565,13 +565,13 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.9714828897338403</v>
+        <v>0.9880239520958084</v>
       </c>
       <c r="C2">
-        <v>0.9569288389513109</v>
+        <v>0.3089887640449438</v>
       </c>
       <c r="D2">
-        <v>0.9641509433962264</v>
+        <v>0.4707560627674751</v>
       </c>
       <c r="E2">
         <v>534</v>
@@ -582,13 +582,13 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0.3611111111111111</v>
+        <v>0.06582278481012659</v>
       </c>
       <c r="C3">
-        <v>0.4642857142857143</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="D3">
-        <v>0.40625</v>
+        <v>0.1229314420803782</v>
       </c>
       <c r="E3">
         <v>28</v>
@@ -599,16 +599,16 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.9323843416370107</v>
+        <v>0.3398576512455516</v>
       </c>
       <c r="C4">
-        <v>0.9323843416370107</v>
+        <v>0.3398576512455516</v>
       </c>
       <c r="D4">
-        <v>0.9323843416370107</v>
+        <v>0.3398576512455516</v>
       </c>
       <c r="E4">
-        <v>0.9323843416370107</v>
+        <v>0.3398576512455516</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -616,13 +616,13 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>0.6662970004224757</v>
+        <v>0.5269233684529675</v>
       </c>
       <c r="C5">
-        <v>0.7106072766185125</v>
+        <v>0.6187800963081862</v>
       </c>
       <c r="D5">
-        <v>0.6852004716981133</v>
+        <v>0.2968437524239266</v>
       </c>
       <c r="E5">
         <v>562</v>
@@ -633,13 +633,13 @@
         <v>21</v>
       </c>
       <c r="B6">
-        <v>0.9410729078807507</v>
+        <v>0.9420779864659167</v>
       </c>
       <c r="C6">
-        <v>0.9323843416370107</v>
+        <v>0.3398576512455516</v>
       </c>
       <c r="D6">
-        <v>0.9363551668569126</v>
+        <v>0.4534267222350218</v>
       </c>
       <c r="E6">
         <v>562</v>
@@ -671,10 +671,10 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>511</v>
+        <v>165</v>
       </c>
       <c r="C2">
-        <v>23</v>
+        <v>369</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -682,10 +682,10 @@
         <v>25</v>
       </c>
       <c r="B3">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
